--- a/data/df novo.xlsx
+++ b/data/df novo.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ViniH\Downloads\vini lenovo\vini lenovo\documentos\power\brahma_chopp4.0\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ViniH\Downloads\vini lenovo\vini lenovo\documentos\power\bi copel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E405E509-1980-412A-9E41-F83E725BCF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6A964-E0F3-403B-BE0C-C0B2D4174212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="184">
   <si>
     <t>SETORES</t>
   </si>
@@ -74,9 +77,6 @@
     <t>SALDO</t>
   </si>
   <si>
-    <t>DATA DO REPASSE</t>
-  </si>
-  <si>
     <t>EXECUÇÃO FÍSICA</t>
   </si>
   <si>
@@ -455,12 +455,6 @@
     <t>SEPL</t>
   </si>
   <si>
-    <t>Construção do Centro de Tecnologia do Estado do Paraná - Fábrica de Ideias</t>
-  </si>
-  <si>
-    <t>Procedimento licitatório em curso</t>
-  </si>
-  <si>
     <t>Educação</t>
   </si>
   <si>
@@ -497,10 +491,106 @@
     <t>Pinheiro do Paraná C E-EF M PROFIS — 04 salas de aula</t>
   </si>
   <si>
-    <t>UNIDADE NOVA ESCOLAR JARDIM MADRID 2024</t>
-  </si>
-  <si>
-    <t>UNIDADE NOVA ESCOLAR JARDIM MADRID 2025</t>
+    <t>Mato Rico; Roncador</t>
+  </si>
+  <si>
+    <t>Guarapuava; Turvo</t>
+  </si>
+  <si>
+    <t>CONTRATO</t>
+  </si>
+  <si>
+    <t>648/2024</t>
+  </si>
+  <si>
+    <t>3961/2024</t>
+  </si>
+  <si>
+    <t>426/2024</t>
+  </si>
+  <si>
+    <t>4599/2024</t>
+  </si>
+  <si>
+    <t>5994/2024</t>
+  </si>
+  <si>
+    <t>3450/2024</t>
+  </si>
+  <si>
+    <t>4237/2024</t>
+  </si>
+  <si>
+    <t>7091/CONT/2024</t>
+  </si>
+  <si>
+    <t>7089/CONT/2024</t>
+  </si>
+  <si>
+    <t>7087/CONT/2024</t>
+  </si>
+  <si>
+    <t>7090/CONT/2024</t>
+  </si>
+  <si>
+    <t>7084/CONT/2024</t>
+  </si>
+  <si>
+    <t>7082/CONT/2024</t>
+  </si>
+  <si>
+    <t>3182/2024</t>
+  </si>
+  <si>
+    <t>4358/2024</t>
+  </si>
+  <si>
+    <t>1296/2025</t>
+  </si>
+  <si>
+    <t>1149/2025</t>
+  </si>
+  <si>
+    <t>6318/2024</t>
+  </si>
+  <si>
+    <t>1487/2024</t>
+  </si>
+  <si>
+    <t>6089/2024</t>
+  </si>
+  <si>
+    <t>2979/2024</t>
+  </si>
+  <si>
+    <t>7573/2023</t>
+  </si>
+  <si>
+    <t>8140/2024</t>
+  </si>
+  <si>
+    <t>7088/CONT/2024</t>
+  </si>
+  <si>
+    <t>29/05/2025</t>
+  </si>
+  <si>
+    <t>DATA DO ÚLTIMO REPASSE</t>
+  </si>
+  <si>
+    <t>DATA DE INÍCIO</t>
+  </si>
+  <si>
+    <t>DATA DE CONCLUSÃO</t>
+  </si>
+  <si>
+    <t>Jardim Madrid — unidade nova</t>
+  </si>
+  <si>
+    <t>17/07/2025</t>
+  </si>
+  <si>
+    <t>Desapropriação do terreno para a construção do Centro de Convenções em Foz do Iguaçu</t>
   </si>
 </sst>
 </file>
@@ -508,11 +598,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -527,7 +631,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -535,18 +639,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -824,15 +947,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R53"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="140.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="13" width="16.109375" customWidth="1"/>
+    <col min="14" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="20.77734375" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="23.5546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -870,607 +1013,672 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2">
         <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3">
+        <v>61719867.090000004</v>
+      </c>
+      <c r="H2" s="3">
+        <v>56919000</v>
+      </c>
+      <c r="I2" s="3">
+        <v>56919000</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2890905.05</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2890905.05</v>
+      </c>
+      <c r="L2" s="3">
+        <v>58828962.039999999</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="P2">
+        <v>6.77</v>
+      </c>
+      <c r="Q2">
+        <v>4.68</v>
+      </c>
+      <c r="R2">
+        <v>755</v>
+      </c>
+      <c r="S2" t="s">
         <v>22</v>
       </c>
-      <c r="G2">
-        <v>61719867.090000004</v>
-      </c>
-      <c r="H2">
-        <v>56919000</v>
-      </c>
-      <c r="I2">
-        <v>56919000</v>
-      </c>
-      <c r="J2">
-        <v>2890905.05</v>
-      </c>
-      <c r="K2">
-        <v>2890905.05</v>
-      </c>
-      <c r="L2">
-        <v>58828962.039999999</v>
-      </c>
-      <c r="N2">
-        <v>6.77</v>
-      </c>
-      <c r="O2">
-        <v>4.68</v>
-      </c>
-      <c r="P2">
-        <v>755</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>23</v>
       </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3">
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="3">
+        <v>67939127</v>
+      </c>
+      <c r="H3" s="3">
+        <v>61708743.490000002</v>
+      </c>
+      <c r="I3" s="3">
+        <v>61708743.490000002</v>
+      </c>
+      <c r="J3" s="3">
+        <v>61340220.390000001</v>
+      </c>
+      <c r="K3" s="3">
+        <v>61340220.390000001</v>
+      </c>
+      <c r="L3" s="3">
+        <v>6598906.6100000003</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="P3">
+        <v>96.26</v>
+      </c>
+      <c r="Q3">
+        <v>90.29</v>
+      </c>
+      <c r="R3">
+        <v>755</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s">
         <v>27</v>
       </c>
-      <c r="G3">
-        <v>67939127</v>
-      </c>
-      <c r="H3">
-        <v>61708743.490000002</v>
-      </c>
-      <c r="I3">
-        <v>61708743.490000002</v>
-      </c>
-      <c r="J3">
-        <v>61340220.390000001</v>
-      </c>
-      <c r="K3">
-        <v>61340220.390000001</v>
-      </c>
-      <c r="L3">
-        <v>6598906.6100000003</v>
-      </c>
-      <c r="N3">
-        <v>96.26</v>
-      </c>
-      <c r="O3">
-        <v>90.29</v>
-      </c>
-      <c r="P3">
-        <v>755</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4">
         <v>26</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3">
+        <v>90658114.75</v>
+      </c>
+      <c r="H4" s="3">
+        <v>87300000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>87300000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>6806459.7599999998</v>
+      </c>
+      <c r="K4" s="3">
+        <v>6806459.7599999998</v>
+      </c>
+      <c r="L4" s="3">
+        <v>83851654.989999995</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="P4">
+        <v>7.6</v>
+      </c>
+      <c r="Q4">
+        <v>7.51</v>
+      </c>
+      <c r="R4">
+        <v>755</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" t="s">
         <v>30</v>
       </c>
-      <c r="G4">
-        <v>90658114.75</v>
-      </c>
-      <c r="H4">
-        <v>87300000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>87300000</v>
-      </c>
-      <c r="J4" s="1">
-        <v>6806459.7599999998</v>
-      </c>
-      <c r="K4">
-        <v>6806459.7599999998</v>
-      </c>
-      <c r="L4">
-        <v>83851654.989999995</v>
-      </c>
-      <c r="N4">
-        <v>7.6</v>
-      </c>
-      <c r="O4">
-        <v>7.51</v>
-      </c>
-      <c r="P4">
-        <v>755</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
       <c r="C5">
         <v>26</v>
       </c>
       <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="3">
+        <v>95680000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>95680000</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>755</v>
+      </c>
+      <c r="S5" t="s">
         <v>33</v>
       </c>
-      <c r="G5">
-        <v>95680000</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>95680000</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>755</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
         <v>34</v>
       </c>
-      <c r="R5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
       </c>
       <c r="C6">
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="3">
+        <v>96357474.329999998</v>
+      </c>
+      <c r="H6" s="3">
+        <v>90849999</v>
+      </c>
+      <c r="I6" s="3">
+        <v>90849999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2839635.83</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2839635.83</v>
+      </c>
+      <c r="L6" s="3">
+        <v>93517838.5</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="P6">
+        <v>2.95</v>
+      </c>
+      <c r="Q6">
+        <v>2.95</v>
+      </c>
+      <c r="R6">
+        <v>755</v>
+      </c>
+      <c r="S6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" t="s">
         <v>38</v>
       </c>
-      <c r="G6">
-        <v>96357474.329999998</v>
-      </c>
-      <c r="H6">
-        <v>90849999</v>
-      </c>
-      <c r="I6">
-        <v>90849999</v>
-      </c>
-      <c r="J6">
-        <v>2839635.83</v>
-      </c>
-      <c r="K6">
-        <v>2839635.83</v>
-      </c>
-      <c r="L6">
-        <v>93517838.5</v>
-      </c>
-      <c r="N6">
-        <v>2.95</v>
-      </c>
-      <c r="O6">
-        <v>2.95</v>
-      </c>
-      <c r="P6">
-        <v>755</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
       </c>
       <c r="C7">
         <v>26</v>
       </c>
       <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="3">
+        <v>143001638.59999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>118000000</v>
+      </c>
+      <c r="I7" s="3">
+        <v>118000000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>66129247.280000001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>66129247.280000001</v>
+      </c>
+      <c r="L7" s="3">
+        <v>76872391.319999993</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="P7">
+        <v>45.98</v>
+      </c>
+      <c r="Q7">
+        <v>46.24</v>
+      </c>
+      <c r="R7">
+        <v>755</v>
+      </c>
+      <c r="S7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" t="s">
         <v>41</v>
       </c>
-      <c r="G7">
-        <v>143001638.59999999</v>
-      </c>
-      <c r="H7">
-        <v>118000000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>118000000</v>
-      </c>
-      <c r="J7" s="1">
-        <v>66129247.280000001</v>
-      </c>
-      <c r="K7">
-        <v>66129247.280000001</v>
-      </c>
-      <c r="L7">
-        <v>76872391.319999993</v>
-      </c>
-      <c r="N7">
-        <v>45.98</v>
-      </c>
-      <c r="O7">
-        <v>46.24</v>
-      </c>
-      <c r="P7">
-        <v>755</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
       </c>
       <c r="C8">
         <v>26</v>
       </c>
       <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="3">
+        <v>185239000.59999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>180950000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>185239000.59999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>166541418.80000001</v>
+      </c>
+      <c r="K8" s="3">
+        <v>166541418.80000001</v>
+      </c>
+      <c r="L8" s="3">
+        <v>18697581.800000001</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="P8">
+        <v>89.88</v>
+      </c>
+      <c r="Q8">
+        <v>89.91</v>
+      </c>
+      <c r="R8">
+        <v>755</v>
+      </c>
+      <c r="S8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" t="s">
         <v>45</v>
       </c>
-      <c r="G8">
-        <v>185239000.59999999</v>
-      </c>
-      <c r="H8">
-        <v>180950000</v>
-      </c>
-      <c r="I8">
-        <v>185239000.59999999</v>
-      </c>
-      <c r="J8">
-        <v>166541418.80000001</v>
-      </c>
-      <c r="K8">
-        <v>166541418.80000001</v>
-      </c>
-      <c r="L8">
-        <v>18697581.800000001</v>
-      </c>
-      <c r="N8">
-        <v>89.88</v>
-      </c>
-      <c r="O8">
-        <v>89.91</v>
-      </c>
-      <c r="P8">
-        <v>755</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
       </c>
       <c r="C9">
         <v>26</v>
       </c>
       <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="3">
+        <v>257215000.09999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G9">
-        <v>257215000.09999999</v>
-      </c>
-      <c r="H9">
-        <v>30000000</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" s="3">
+        <v>23146147.969999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>23146147.969999999</v>
+      </c>
+      <c r="L9" s="3">
+        <v>234068852.09999999</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="P9">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>755</v>
+      </c>
+      <c r="S9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" t="s">
         <v>50</v>
       </c>
-      <c r="J9">
-        <v>23146147.969999999</v>
-      </c>
-      <c r="K9">
-        <v>23146147.969999999</v>
-      </c>
-      <c r="L9">
-        <v>234068852.09999999</v>
-      </c>
-      <c r="N9">
-        <v>9</v>
-      </c>
-      <c r="O9">
-        <v>9</v>
-      </c>
-      <c r="P9">
-        <v>755</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
       <c r="C10">
         <v>26</v>
       </c>
       <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" s="3">
+        <v>274500000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>16555308</v>
+      </c>
+      <c r="I10" s="3">
+        <v>19545308</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1414816.18</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1414816.18</v>
+      </c>
+      <c r="L10" s="3">
+        <v>273085183.80000001</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="P10">
+        <v>0.48</v>
+      </c>
+      <c r="Q10">
+        <v>0.52</v>
+      </c>
+      <c r="R10">
+        <v>755</v>
+      </c>
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" t="s">
         <v>53</v>
       </c>
-      <c r="G10">
-        <v>274500000</v>
-      </c>
-      <c r="H10">
-        <v>16555308</v>
-      </c>
-      <c r="I10">
-        <v>19545308</v>
-      </c>
-      <c r="J10">
-        <v>1414816.18</v>
-      </c>
-      <c r="K10">
-        <v>1414816.18</v>
-      </c>
-      <c r="L10">
-        <v>273085183.80000001</v>
-      </c>
-      <c r="N10">
-        <v>0.48</v>
-      </c>
-      <c r="O10">
-        <v>0.52</v>
-      </c>
-      <c r="P10">
-        <v>755</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
       <c r="C11">
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" s="3">
+        <v>293750000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>293750000</v>
+      </c>
+      <c r="I11" s="3">
+        <v>293750000</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2981790.57</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2981790.57</v>
+      </c>
+      <c r="L11" s="3">
+        <v>290768209.39999998</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="P11">
+        <v>1.02</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>755</v>
+      </c>
+      <c r="S11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" t="s">
         <v>57</v>
       </c>
-      <c r="G11">
-        <v>293750000</v>
-      </c>
-      <c r="H11">
-        <v>293750000</v>
-      </c>
-      <c r="I11" s="1">
-        <v>293750000</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2981790.57</v>
-      </c>
-      <c r="K11">
-        <v>2981790.57</v>
-      </c>
-      <c r="L11">
-        <v>290768209.39999998</v>
-      </c>
-      <c r="N11">
-        <v>1.02</v>
-      </c>
-      <c r="O11">
-        <v>1.02</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
       </c>
       <c r="C12">
         <v>26</v>
       </c>
       <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" s="3">
+        <v>514230020</v>
+      </c>
+      <c r="H12" s="3">
+        <v>29793758</v>
+      </c>
+      <c r="I12" s="3">
+        <v>29793758</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8256744.96</v>
+      </c>
+      <c r="K12" s="3">
+        <v>8256744.96</v>
+      </c>
+      <c r="L12" s="3">
+        <v>505973275</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="P12">
+        <v>1.52</v>
+      </c>
+      <c r="Q12">
+        <v>1.61</v>
+      </c>
+      <c r="R12">
+        <v>755</v>
+      </c>
+      <c r="S12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" t="s">
         <v>61</v>
       </c>
-      <c r="G12">
-        <v>514230020</v>
-      </c>
-      <c r="H12">
-        <v>29793758</v>
-      </c>
-      <c r="I12">
-        <v>29793758</v>
-      </c>
-      <c r="J12">
-        <v>8256744.96</v>
-      </c>
-      <c r="K12">
-        <v>8256744.96</v>
-      </c>
-      <c r="L12">
-        <v>505973275</v>
-      </c>
-      <c r="N12">
-        <v>1.52</v>
-      </c>
-      <c r="O12">
-        <v>1.61</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="U12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>150000000</v>
@@ -1490,43 +1698,44 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>45429</v>
       </c>
-      <c r="N13">
+      <c r="O13" s="2"/>
+      <c r="P13">
         <v>100</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>100</v>
       </c>
-      <c r="P13">
-        <v>755</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="R13">
+        <v>755</v>
+      </c>
+      <c r="S13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13" t="s">
         <v>66</v>
       </c>
-      <c r="R13" t="s">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
       </c>
       <c r="C14">
         <v>16</v>
       </c>
       <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
         <v>70</v>
       </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14">
         <v>8905209.6899999995</v>
@@ -1546,40 +1755,43 @@
       <c r="L14">
         <v>8105209.6900000004</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>8.98</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>8.98</v>
       </c>
-      <c r="P14">
-        <v>755</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="R14">
+        <v>755</v>
+      </c>
+      <c r="S14" t="s">
+        <v>71</v>
+      </c>
+      <c r="T14" t="s">
         <v>72</v>
       </c>
-      <c r="R14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U14" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
         <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
       </c>
       <c r="C15">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15">
         <v>8383923.5899999999</v>
@@ -1599,40 +1811,43 @@
       <c r="L15">
         <v>7922668.8600000003</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>5.5</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>5.5</v>
       </c>
-      <c r="P15">
-        <v>755</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <v>755</v>
+      </c>
+      <c r="S15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" t="s">
+        <v>74</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
         <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
       </c>
       <c r="C16">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16">
         <v>8485344.8699999992</v>
@@ -1652,90 +1867,94 @@
       <c r="L16">
         <v>8485344.8699999992</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
       <c r="P16">
-        <v>755</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>72</v>
-      </c>
-      <c r="R16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>755</v>
+      </c>
+      <c r="S16" t="s">
+        <v>71</v>
+      </c>
+      <c r="T16" t="s">
+        <v>74</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17">
         <v>26</v>
       </c>
       <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" t="s">
-        <v>78</v>
-      </c>
       <c r="F17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17">
+        <v>77</v>
+      </c>
+      <c r="G17" s="3">
         <v>19033024</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>19033023.399999999</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>19033023.399999999</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>19033023.399999999</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>0.60000000099999995</v>
       </c>
-      <c r="N17">
+      <c r="M17" s="3"/>
+      <c r="P17">
         <v>100</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>100</v>
       </c>
-      <c r="P17">
-        <v>755</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R17">
+        <v>755</v>
+      </c>
+      <c r="S17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
         <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G18">
         <v>8500790.9600000009</v>
@@ -1755,40 +1974,43 @@
       <c r="L18">
         <v>7713215</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>9.26</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>9.26</v>
       </c>
-      <c r="P18">
-        <v>755</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>72</v>
-      </c>
-      <c r="R18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <v>755</v>
+      </c>
+      <c r="S18" t="s">
+        <v>71</v>
+      </c>
+      <c r="T18" t="s">
+        <v>79</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
         <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
       </c>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1808,37 +2030,37 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
       <c r="P19">
-        <v>755</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>755</v>
+      </c>
+      <c r="S19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
         <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20">
         <v>10424628.73</v>
@@ -1858,40 +2080,43 @@
       <c r="L20">
         <v>9637868.9900000002</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>7.54</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>7.54</v>
       </c>
-      <c r="P20">
-        <v>755</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="R20">
+        <v>755</v>
+      </c>
+      <c r="S20" t="s">
+        <v>71</v>
+      </c>
+      <c r="T20" t="s">
         <v>72</v>
       </c>
-      <c r="R20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U20" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
         <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
       </c>
       <c r="C21">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21">
         <v>8690985.5099999998</v>
@@ -1911,40 +2136,43 @@
       <c r="L21">
         <v>8014237.4199999999</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>7.78</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>7.78</v>
       </c>
-      <c r="P21">
-        <v>755</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>72</v>
-      </c>
-      <c r="R21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R21">
+        <v>755</v>
+      </c>
+      <c r="S21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s">
+        <v>83</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
         <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
       </c>
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22">
         <v>7267000</v>
@@ -1964,1132 +2192,1165 @@
       <c r="L22">
         <v>6768984.4000000004</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>6.85</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>6.85</v>
       </c>
-      <c r="P22">
-        <v>755</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>72</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="R22">
+        <v>755</v>
+      </c>
+      <c r="S22" t="s">
+        <v>71</v>
+      </c>
+      <c r="T22" t="s">
+        <v>85</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
       <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
         <v>88</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>89</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" s="3">
+        <v>17549730</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>17549730</v>
+      </c>
+      <c r="J23" s="3">
+        <v>17549730</v>
+      </c>
+      <c r="K23" s="3">
+        <v>17549730</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="P23">
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <v>100</v>
+      </c>
+      <c r="R23">
+        <v>755</v>
+      </c>
+      <c r="S23" t="s">
+        <v>65</v>
+      </c>
+      <c r="T23" t="s">
         <v>90</v>
       </c>
-      <c r="G23">
-        <v>17549730</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>17549730</v>
-      </c>
-      <c r="J23">
-        <v>17549730</v>
-      </c>
-      <c r="K23">
-        <v>17549730</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>52.69</v>
-      </c>
-      <c r="P23">
-        <v>755</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>66</v>
-      </c>
-      <c r="R23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>6</v>
       </c>
       <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
         <v>92</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="3">
+        <v>264094</v>
+      </c>
+      <c r="H24" s="3">
+        <v>264094</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>264094</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>755</v>
+      </c>
+      <c r="S24" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" t="s">
         <v>93</v>
       </c>
-      <c r="F24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24">
-        <v>264094</v>
-      </c>
-      <c r="H24" s="1">
-        <v>264094</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>264094</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>755</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25">
         <v>6</v>
       </c>
       <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
         <v>95</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3306132.84</v>
+      </c>
+      <c r="H25" s="3">
+        <v>600000</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>600000</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>755</v>
+      </c>
+      <c r="S25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" t="s">
         <v>96</v>
       </c>
-      <c r="F25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25">
-        <v>3306132.84</v>
-      </c>
-      <c r="H25">
-        <v>600000</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>600000</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>755</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>34</v>
-      </c>
-      <c r="R25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
         <v>98</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6992059.3200000003</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>300000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>700000</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" t="s">
         <v>99</v>
       </c>
-      <c r="F26" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26">
-        <v>6992059.3200000003</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="I26" s="1">
-        <v>300000</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>700000</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>755</v>
+      </c>
+      <c r="S26" t="s">
         <v>100</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>755</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="T26" t="s">
         <v>101</v>
       </c>
-      <c r="R26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
         <v>103</v>
       </c>
-      <c r="E27" t="s">
-        <v>104</v>
-      </c>
       <c r="F27" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27">
+        <v>103</v>
+      </c>
+      <c r="G27" s="3">
         <v>7371203.3399999999</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="3">
         <v>1050000</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="3">
         <v>504033.54</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>545966.46</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="3"/>
+      <c r="N27" t="s">
+        <v>99</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>755</v>
+      </c>
+      <c r="S27" t="s">
         <v>100</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>755</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="T27" t="s">
         <v>101</v>
       </c>
-      <c r="R27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28">
         <v>6</v>
       </c>
       <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
         <v>105</v>
       </c>
-      <c r="E28" t="s">
-        <v>106</v>
-      </c>
       <c r="F28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28">
+        <v>105</v>
+      </c>
+      <c r="G28" s="3">
         <v>7344654.5800000001</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="3">
         <v>1050000</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="3">
         <v>777705.51</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
         <v>272294.49</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="3"/>
+      <c r="N28" t="s">
+        <v>99</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>755</v>
+      </c>
+      <c r="S28" t="s">
         <v>100</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>755</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="T28" t="s">
         <v>101</v>
       </c>
-      <c r="R28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29">
         <v>6</v>
       </c>
       <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
         <v>107</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>145690.89000000001</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>755</v>
+      </c>
+      <c r="S29" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" t="s">
         <v>108</v>
       </c>
-      <c r="F29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29">
-        <v>2400000</v>
-      </c>
-      <c r="H29" s="1">
-        <v>145690.89000000001</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>2400000</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>755</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
       <c r="D30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" t="s">
         <v>110</v>
       </c>
-      <c r="E30" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>3000000</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="3">
         <v>500000</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
         <v>3000000</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
+      <c r="M30" s="3"/>
       <c r="P30">
-        <v>755</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>101</v>
-      </c>
-      <c r="R30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>755</v>
+      </c>
+      <c r="S30" t="s">
+        <v>100</v>
+      </c>
+      <c r="T30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>6</v>
       </c>
       <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" t="s">
         <v>112</v>
       </c>
-      <c r="E31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>3849559.29</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>600000</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>512291.37</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
         <v>87708.63</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="3"/>
+      <c r="N31" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>755</v>
+      </c>
+      <c r="S31" t="s">
         <v>100</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>755</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="T31" t="s">
         <v>101</v>
       </c>
-      <c r="R31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32">
+        <v>70</v>
+      </c>
+      <c r="G32" s="3">
         <v>30000000</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="3">
         <v>1000000</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>30000000</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
+      <c r="M32" s="3"/>
       <c r="P32">
-        <v>755</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>101</v>
-      </c>
-      <c r="R32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>755</v>
+      </c>
+      <c r="S32" t="s">
+        <v>100</v>
+      </c>
+      <c r="T32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <v>6</v>
       </c>
       <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="3">
+        <v>6107605.7800000003</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>755</v>
+      </c>
+      <c r="S33" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" t="s">
         <v>115</v>
       </c>
-      <c r="E33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33">
-        <v>6107605.7800000003</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>755</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>34</v>
-      </c>
-      <c r="R33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <v>6</v>
       </c>
       <c r="D34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="3">
+        <v>51430980.93</v>
+      </c>
+      <c r="H34" s="3">
+        <v>17341565</v>
+      </c>
+      <c r="I34" s="3">
+        <v>13150887.17</v>
+      </c>
+      <c r="J34" s="3">
+        <v>7422507.8899999997</v>
+      </c>
+      <c r="K34" s="3">
+        <v>7257286.4400000004</v>
+      </c>
+      <c r="L34" s="3">
+        <v>4190677.83</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34">
+        <v>56</v>
+      </c>
+      <c r="Q34">
+        <v>56</v>
+      </c>
+      <c r="R34">
+        <v>755</v>
+      </c>
+      <c r="S34" t="s">
+        <v>22</v>
+      </c>
+      <c r="T34" t="s">
         <v>117</v>
       </c>
-      <c r="E34" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34">
-        <v>51430980.93</v>
-      </c>
-      <c r="H34">
-        <v>17341565</v>
-      </c>
-      <c r="I34">
-        <v>13150887.17</v>
-      </c>
-      <c r="J34">
-        <v>7422507.8899999997</v>
-      </c>
-      <c r="K34">
-        <v>7257286.4400000004</v>
-      </c>
-      <c r="L34">
-        <v>4190677.83</v>
-      </c>
-      <c r="M34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N34">
-        <v>56</v>
-      </c>
-      <c r="O34">
-        <v>56</v>
-      </c>
-      <c r="P34">
-        <v>755</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>6</v>
       </c>
       <c r="D35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="3">
+        <v>30046999.43</v>
+      </c>
+      <c r="H35" s="3">
+        <v>30046999.43</v>
+      </c>
+      <c r="I35" s="3">
+        <v>30046999.43</v>
+      </c>
+      <c r="J35" s="3">
+        <v>29253706.460000001</v>
+      </c>
+      <c r="K35" s="3">
+        <v>29253706.460000001</v>
+      </c>
+      <c r="L35" s="3">
+        <v>793292.97</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="P35">
+        <v>100</v>
+      </c>
+      <c r="Q35">
+        <v>97.35</v>
+      </c>
+      <c r="R35">
+        <v>755</v>
+      </c>
+      <c r="S35" t="s">
+        <v>65</v>
+      </c>
+      <c r="T35" t="s">
         <v>119</v>
       </c>
-      <c r="E35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35">
-        <v>30046999.43</v>
-      </c>
-      <c r="H35" s="1">
-        <v>30046999.43</v>
-      </c>
-      <c r="I35" s="1">
-        <v>30046999.43</v>
-      </c>
-      <c r="J35" s="1">
-        <v>29253706.460000001</v>
-      </c>
-      <c r="K35" s="1">
-        <v>29253706.460000001</v>
-      </c>
-      <c r="L35">
-        <v>793292.97</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>97.35</v>
-      </c>
-      <c r="P35">
-        <v>755</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>66</v>
-      </c>
-      <c r="R35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36">
         <v>6</v>
       </c>
       <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
         <v>121</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" s="3">
+        <v>15200000</v>
+      </c>
+      <c r="H36" s="3">
+        <v>590000</v>
+      </c>
+      <c r="I36" s="3">
+        <v>5039600</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>15200000</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>755</v>
+      </c>
+      <c r="S36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T36" t="s">
         <v>122</v>
       </c>
-      <c r="G36">
-        <v>15200000</v>
-      </c>
-      <c r="H36" s="1">
-        <v>590000</v>
-      </c>
-      <c r="I36" s="1">
-        <v>5039600</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>15200000</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>755</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
       <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="3">
+        <v>22645216.920000002</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>22645216.920000002</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>755</v>
+      </c>
+      <c r="S37" t="s">
         <v>124</v>
       </c>
-      <c r="E37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37">
-        <v>22645216.920000002</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>22645216.920000002</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>755</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="T37" t="s">
         <v>125</v>
       </c>
-      <c r="R37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38">
         <v>6</v>
       </c>
       <c r="D38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" t="s">
         <v>127</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" s="3">
+        <v>2214039.6800000002</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2214039.6800000002</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2214039.6800000002</v>
+      </c>
+      <c r="J38" s="3">
+        <v>2214039.6800000002</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2214039.6800000002</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="P38">
+        <v>100</v>
+      </c>
+      <c r="Q38">
+        <v>100</v>
+      </c>
+      <c r="R38">
+        <v>755</v>
+      </c>
+      <c r="S38" t="s">
+        <v>65</v>
+      </c>
+      <c r="T38" t="s">
         <v>128</v>
       </c>
-      <c r="G38">
-        <v>2214039.6800000002</v>
-      </c>
-      <c r="H38">
-        <v>2214039.6800000002</v>
-      </c>
-      <c r="I38">
-        <v>2214039.6800000002</v>
-      </c>
-      <c r="J38">
-        <v>2214039.6800000002</v>
-      </c>
-      <c r="K38" s="1">
-        <v>2214039.6800000002</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>100</v>
-      </c>
-      <c r="P38">
-        <v>755</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>66</v>
-      </c>
-      <c r="R38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>6</v>
       </c>
       <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3800000</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>3800000</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>755</v>
+      </c>
+      <c r="S39" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" t="s">
         <v>130</v>
       </c>
-      <c r="E39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39">
-        <v>3800000</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>3800000</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>755</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>34</v>
-      </c>
-      <c r="R39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40">
         <v>6</v>
       </c>
       <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="3">
+        <v>5629996.2400000002</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>5629996.2400000002</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>755</v>
+      </c>
+      <c r="S40" t="s">
+        <v>33</v>
+      </c>
+      <c r="T40" t="s">
         <v>132</v>
       </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40">
-        <v>5629996.2400000002</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>5629996.2400000002</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>755</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>34</v>
-      </c>
-      <c r="R40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>6</v>
       </c>
       <c r="D41" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" t="s">
         <v>134</v>
       </c>
-      <c r="E41" t="s">
-        <v>135</v>
-      </c>
       <c r="F41" t="s">
-        <v>135</v>
-      </c>
-      <c r="G41">
+        <v>134</v>
+      </c>
+      <c r="G41" s="3">
         <v>2113000</v>
       </c>
       <c r="H41" s="3">
         <v>1200000</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>1967330.94</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>1200748.6599999999</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>1200748.6599999999</v>
       </c>
       <c r="L41" s="3">
         <v>912251.34</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="3"/>
+      <c r="N41" s="2">
         <v>45639</v>
       </c>
-      <c r="N41">
+      <c r="O41" s="2"/>
+      <c r="P41">
         <v>57</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <v>57</v>
       </c>
-      <c r="P41">
-        <v>755</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R41">
+        <v>755</v>
+      </c>
+      <c r="S41" t="s">
+        <v>22</v>
+      </c>
+      <c r="T41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42">
         <v>10</v>
       </c>
       <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1424928.97</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1424928.97</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>755</v>
+      </c>
+      <c r="S42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
         <v>137</v>
-      </c>
-      <c r="E42" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42">
-        <v>1424928.97</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>1424928.97</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>755</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" t="s">
-        <v>138</v>
       </c>
       <c r="C43">
         <v>19</v>
       </c>
       <c r="D43" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="3">
+        <v>74269000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>74269000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>74269000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>74269000</v>
+      </c>
+      <c r="K43" s="3">
+        <v>74269000</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>177</v>
+      </c>
+      <c r="N43" t="s">
+        <v>177</v>
+      </c>
+      <c r="O43" t="s">
+        <v>177</v>
+      </c>
+      <c r="P43" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>755</v>
+      </c>
+      <c r="S43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" t="s">
         <v>139</v>
-      </c>
-      <c r="E43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43">
-        <v>335264442</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>335264442</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>755</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>34</v>
-      </c>
-      <c r="R43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" t="s">
-        <v>142</v>
       </c>
       <c r="C44">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>18618000</v>
@@ -3109,37 +3370,40 @@
       <c r="L44">
         <v>18618000</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>1.22</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>755</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>755</v>
+      </c>
+      <c r="S44" t="s">
+        <v>22</v>
+      </c>
+      <c r="U44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C45">
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G45">
         <v>27477000</v>
@@ -3159,37 +3423,40 @@
       <c r="L45">
         <v>27477000</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <v>5.33</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <v>1.26</v>
       </c>
-      <c r="P45">
-        <v>755</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R45">
+        <v>755</v>
+      </c>
+      <c r="S45" t="s">
+        <v>22</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C46">
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G46">
         <v>23272000</v>
@@ -3209,37 +3476,40 @@
       <c r="L46">
         <v>23272000</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <v>1.73</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>0.21</v>
       </c>
-      <c r="P46">
-        <v>755</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R46">
+        <v>755</v>
+      </c>
+      <c r="S46" t="s">
+        <v>22</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C47">
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G47">
         <v>13272945.32</v>
@@ -3259,40 +3529,44 @@
       <c r="L47">
         <v>7095291.0700000003</v>
       </c>
-      <c r="M47" s="2">
+      <c r="N47" s="2">
         <v>45813</v>
       </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
+      <c r="O47" s="2"/>
+      <c r="P47">
+        <v>67.08</v>
+      </c>
+      <c r="Q47">
         <v>46.54</v>
       </c>
-      <c r="P47">
-        <v>755</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R47">
+        <v>755</v>
+      </c>
+      <c r="S47" t="s">
+        <v>146</v>
+      </c>
+      <c r="U47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C48">
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48">
         <v>4646819.08</v>
@@ -3312,40 +3586,44 @@
       <c r="L48">
         <v>2544434.66</v>
       </c>
-      <c r="M48" s="2">
-        <v>45810</v>
-      </c>
-      <c r="N48">
+      <c r="N48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48">
         <v>58.4</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <v>52.04</v>
       </c>
-      <c r="P48">
-        <v>755</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R48">
+        <v>755</v>
+      </c>
+      <c r="S48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C49">
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49">
         <v>5014316.45</v>
@@ -3365,40 +3643,44 @@
       <c r="L49">
         <v>2576624.6</v>
       </c>
-      <c r="M49" s="2">
+      <c r="N49" s="2">
         <v>45819</v>
       </c>
-      <c r="N49">
+      <c r="O49" s="2"/>
+      <c r="P49">
         <v>68.05</v>
       </c>
-      <c r="O49">
+      <c r="Q49">
         <v>56.43</v>
       </c>
-      <c r="P49">
-        <v>755</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R49">
+        <v>755</v>
+      </c>
+      <c r="S49" t="s">
+        <v>22</v>
+      </c>
+      <c r="U49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C50">
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G50">
         <v>3031292.89</v>
@@ -3418,40 +3700,44 @@
       <c r="L50">
         <v>615311.92000000004</v>
       </c>
-      <c r="M50" s="2">
+      <c r="N50" s="2">
         <v>45824</v>
       </c>
-      <c r="N50">
+      <c r="O50" s="2"/>
+      <c r="P50">
         <v>80.78</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <v>79.7</v>
       </c>
-      <c r="P50">
-        <v>755</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R50">
+        <v>755</v>
+      </c>
+      <c r="S50" t="s">
+        <v>22</v>
+      </c>
+      <c r="U50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C51">
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51">
         <v>24889925.620000001</v>
@@ -3471,126 +3757,24 @@
       <c r="L51">
         <v>24889925.620000001</v>
       </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
       <c r="P51">
-        <v>755</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" t="s">
-        <v>89</v>
-      </c>
-      <c r="G52">
-        <v>24889925.620000001</v>
-      </c>
-      <c r="H52">
-        <v>600000</v>
-      </c>
-      <c r="I52">
-        <v>600000</v>
-      </c>
-      <c r="J52">
-        <v>575855.91</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>24889925.620000001</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>755</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" t="s">
-        <v>135</v>
-      </c>
-      <c r="G53">
-        <v>2113000</v>
-      </c>
-      <c r="H53" s="3">
-        <v>1200000</v>
-      </c>
-      <c r="I53">
-        <v>1967330.94</v>
-      </c>
-      <c r="J53">
-        <v>1200748.6599999999</v>
-      </c>
-      <c r="K53">
-        <v>1200748.6599999999</v>
-      </c>
-      <c r="L53" s="3">
-        <v>912251.34</v>
-      </c>
-      <c r="M53" s="2">
-        <v>45639</v>
-      </c>
-      <c r="N53">
-        <v>57</v>
-      </c>
-      <c r="O53">
-        <v>57</v>
-      </c>
-      <c r="P53">
-        <v>755</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" t="s">
-        <v>118</v>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>755</v>
+      </c>
+      <c r="S51" t="s">
+        <v>146</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>